--- a/medicine/Soins infirmiers et profession infirmière/Écoles_de_soins_infirmiers_(Québec)/Écoles_de_soins_infirmiers_(Québec).xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Écoles_de_soins_infirmiers_(Québec)/Écoles_de_soins_infirmiers_(Québec).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89coles_de_soins_infirmiers_(Qu%C3%A9bec)</t>
+          <t>Écoles_de_soins_infirmiers_(Québec)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une école de soins infirmiers est un un lieu ou est enseigné la profession d’infirmière et d'infirmier qui conduit à un diplôme de professionnel de la santé dont la profession est de délivrer des soins infirmiers. La plupart des écoles au canada français furent intégrées dans les hôpitaux depuis la fondation en 1692 du premier Hôpital général de Québec [1]. La formation continua dans les hôpitaux avec des stages pratique supervisés jusque dans les années 1970 ou la formation fut transférée  dans les Cégep.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une école de soins infirmiers est un un lieu ou est enseigné la profession d’infirmière et d'infirmier qui conduit à un diplôme de professionnel de la santé dont la profession est de délivrer des soins infirmiers. La plupart des écoles au canada français furent intégrées dans les hôpitaux depuis la fondation en 1692 du premier Hôpital général de Québec . La formation continua dans les hôpitaux avec des stages pratique supervisés jusque dans les années 1970 ou la formation fut transférée  dans les Cégep.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89coles_de_soins_infirmiers_(Qu%C3%A9bec)</t>
+          <t>Écoles_de_soins_infirmiers_(Québec)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origines de la profession
-Au Moyen Âge, pour s'occuper des lépreux, divers « pseudo-soignants », guérisseuses, sages-femmes ou sorcières qui connaissent certains remèdes efficaces étaient mis à contribution[2]. Ce sont les ordres religieux féminins et masculins qui organisèrent les soins aux malades selon des critères en lien avec la charité et l'amour de Dieu. Le soin est alors une activité « sacrée » bénévole et n'a qu'une valeur culturelle. Celle ou celui qui le pratique est pris en charge par la structure religieuse. Les religieuses soignent à domicile et dans les hôpitaux. 
+          <t>Origines de la profession</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Moyen Âge, pour s'occuper des lépreux, divers « pseudo-soignants », guérisseuses, sages-femmes ou sorcières qui connaissent certains remèdes efficaces étaient mis à contribution. Ce sont les ordres religieux féminins et masculins qui organisèrent les soins aux malades selon des critères en lien avec la charité et l'amour de Dieu. Le soin est alors une activité « sacrée » bénévole et n'a qu'une valeur culturelle. Celle ou celui qui le pratique est pris en charge par la structure religieuse. Les religieuses soignent à domicile et dans les hôpitaux. 
 Dans certains pays, la pratique infirmière a évolué au niveau de la prescription. En effet, l’Australie, le Canada, la Finlande, l’Irlande, la Nouvelle-Zélande, la Norvège, l’Afrique du Sud, la Suède, les Pays-Bas, le Royaume-Uni et les États-Unis d’Amérique ont mis en place la prescription infirmière. Cela permet donc aux infirmières de prescrire de nombreux traitements et soins. Ce nouveau rôle a pour conséquence de diminuer le temps de consultations des médecins et d'augmenter l'autonomie des infirmières.
 </t>
         </is>
